--- a/data/Cabo de Hornos.xlsx
+++ b/data/Cabo de Hornos.xlsx
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 25, SENO BRUJO.</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 12, SENO CHASCO, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123013</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6212345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6094490&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 12, SENO CHASCO, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123013</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 15, SENO CHASCO. Nº PERT: 207123016</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6094490&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6097695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 15, SENO CHASCO. Nº PERT: 207123016</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 25, SENO BRUJO.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6097695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6212345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 16, PENINSULA BRECKNOCK, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123017</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 18, SENO BRUJO, CABO DE HORNOS.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6099113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6233092&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 8, PENÍNSULA BRECKNOCK.</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 4, PENÍNSULA BRECKNOCK. Nº PERT: 207123005</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6211846&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089506&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>PLAN DE CIERRE VERTEDERO PUERTO WILLIAMS</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 16, PENINSULA BRECKNOCK, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123017</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,11 +1639,11 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Cabo de Hornos</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>303</v>
+        <v>2600</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1652,12 +1652,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6177870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6099113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 18, SENO BRUJO, CABO DE HORNOS.</t>
+          <t>PLAN DE CIERRE VERTEDERO PUERTO WILLIAMS</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,11 +1687,11 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Ilustre Municipalidad de Cabo de Hornos</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2600</v>
+        <v>303</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1700,12 +1700,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6233092&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6177870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 4, PENÍNSULA BRECKNOCK. Nº PERT: 207123005</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 8, PENÍNSULA BRECKNOCK.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089506&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6211846&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Punta Norte (201123012) Paso Picton Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Bahía Virginia (201123003) Canal Beagle</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3355,7 +3355,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Pesquera Cabo Pilar S.A.</t>
+          <t>Construcciones y Carpintería Naval CONCAR S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -3368,12 +3368,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6114&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6112&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3388,7 +3388,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Isla Delia (201123007) Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Islotes Eclaireurs (201123004) Canal Beagle</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3403,7 +3403,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Pesquera Cabo Pilar S.A.</t>
+          <t>Construcciones y Carpintería Naval CONCAR S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -3416,12 +3416,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3436,7 +3436,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Islote Solitario (201123010) Paso Picton Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Punta Norte (201123012) Paso Picton Canal Beagle</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3469,7 +3469,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6114&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3484,7 +3484,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Área Puerto Toro Paso Picton - Canal Beagle (201123011)</t>
+          <t>Centro de Engorda de Salmonídeos Sector Isla Delia (201123007) Canal Beagle</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3517,7 +3517,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3532,7 +3532,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Bahía Virginia (201123003) Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Islote Solitario (201123010) Paso Picton Canal Beagle</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3547,7 +3547,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Construcciones y Carpintería Naval CONCAR S.A.</t>
+          <t>Pesquera Cabo Pilar S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -3560,12 +3560,12 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6112&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3580,7 +3580,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Islotes Eclaireurs (201123004) Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Isla Martínez (201123001) Canal Beagle</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3613,7 +3613,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3628,7 +3628,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Isla Martínez (201123001) Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Punta Burshem (201123002) Canal Beagle</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3661,7 +3661,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6118&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3676,7 +3676,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Punta Burshem (201123002) Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Área Puerto Toro Paso Picton - Canal Beagle (201123011)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3691,7 +3691,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Construcciones y Carpintería Naval CONCAR S.A.</t>
+          <t>Pesquera Cabo Pilar S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -3704,12 +3704,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6118&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">

--- a/data/Cabo de Hornos.xlsx
+++ b/data/Cabo de Hornos.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">

--- a/data/Cabo de Hornos.xlsx
+++ b/data/Cabo de Hornos.xlsx
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 12, SENO CHASCO, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123013</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 25, SENO BRUJO.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6094490&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6212345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 15, SENO CHASCO. Nº PERT: 207123016</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 12, SENO CHASCO, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123013</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6097695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6094490&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 25, SENO BRUJO.</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 15, SENO CHASCO. Nº PERT: 207123016</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6212345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6097695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 18, SENO BRUJO, CABO DE HORNOS.</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 16, PENINSULA BRECKNOCK, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123017</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6233092&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6099113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 4, PENÍNSULA BRECKNOCK. Nº PERT: 207123005</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 8, PENÍNSULA BRECKNOCK.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089506&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6211846&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 16, PENINSULA BRECKNOCK, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123017</t>
+          <t>PLAN DE CIERRE VERTEDERO PUERTO WILLIAMS</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,11 +1639,11 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Ilustre Municipalidad de Cabo de Hornos</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2600</v>
+        <v>303</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1652,12 +1652,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6099113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6177870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PLAN DE CIERRE VERTEDERO PUERTO WILLIAMS</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 18, SENO BRUJO, CABO DE HORNOS.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,11 +1687,11 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Cabo de Hornos</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>303</v>
+        <v>2600</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1700,12 +1700,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6177870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6233092&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 8, PENÍNSULA BRECKNOCK.</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 4, PENÍNSULA BRECKNOCK. Nº PERT: 207123005</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6211846&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089506&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Bahía Virginia (201123003) Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Punta Norte (201123012) Paso Picton Canal Beagle</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3355,7 +3355,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Construcciones y Carpintería Naval CONCAR S.A.</t>
+          <t>Pesquera Cabo Pilar S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -3368,12 +3368,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6112&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6114&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3388,7 +3388,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Islotes Eclaireurs (201123004) Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Isla Delia (201123007) Canal Beagle</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3403,7 +3403,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Construcciones y Carpintería Naval CONCAR S.A.</t>
+          <t>Pesquera Cabo Pilar S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -3416,12 +3416,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3436,7 +3436,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Punta Norte (201123012) Paso Picton Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Islote Solitario (201123010) Paso Picton Canal Beagle</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3469,7 +3469,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6114&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3484,7 +3484,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Isla Delia (201123007) Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Área Puerto Toro Paso Picton - Canal Beagle (201123011)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3517,7 +3517,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3532,7 +3532,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Islote Solitario (201123010) Paso Picton Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Bahía Virginia (201123003) Canal Beagle</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3547,7 +3547,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Pesquera Cabo Pilar S.A.</t>
+          <t>Construcciones y Carpintería Naval CONCAR S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -3560,12 +3560,12 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6112&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3580,7 +3580,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Isla Martínez (201123001) Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Islotes Eclaireurs (201123004) Canal Beagle</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3613,7 +3613,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3628,7 +3628,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Punta Burshem (201123002) Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Isla Martínez (201123001) Canal Beagle</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3661,7 +3661,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6118&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3676,7 +3676,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Área Puerto Toro Paso Picton - Canal Beagle (201123011)</t>
+          <t>Centro de Engorda de Salmonídeos Sector Punta Burshem (201123002) Canal Beagle</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3691,7 +3691,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Pesquera Cabo Pilar S.A.</t>
+          <t>Construcciones y Carpintería Naval CONCAR S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -3704,12 +3704,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6118&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">

--- a/data/Cabo de Hornos.xlsx
+++ b/data/Cabo de Hornos.xlsx
@@ -439,7 +439,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>GASCO GLP S.A.</t>
+          <t>Gasco GLP S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">

--- a/data/Cabo de Hornos.xlsx
+++ b/data/Cabo de Hornos.xlsx
@@ -2036,7 +2036,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">

--- a/data/Cabo de Hornos.xlsx
+++ b/data/Cabo de Hornos.xlsx
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 12, SENO CHASCO, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123013</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 25, SENO BRUJO.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6094490&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6212345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 15, SENO CHASCO. Nº PERT: 207123016</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 12, SENO CHASCO, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123013</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6097695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6094490&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 25, SENO BRUJO.</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 15, SENO CHASCO. Nº PERT: 207123016</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6212345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6097695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 18, SENO BRUJO, CABO DE HORNOS.</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 16, PENINSULA BRECKNOCK, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123017</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6233092&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6099113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 4, PENÍNSULA BRECKNOCK. Nº PERT: 207123005</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 8, PENÍNSULA BRECKNOCK.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089506&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6211846&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 16, PENINSULA BRECKNOCK, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123017</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 4, PENÍNSULA BRECKNOCK. Nº PERT: 207123005</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6099113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089506&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 8, PENÍNSULA BRECKNOCK.</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 18, SENO BRUJO, CABO DE HORNOS.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6211846&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6233092&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2084,7 +2084,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Bahía Virginia (201123003) Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Punta Norte (201123012) Paso Picton Canal Beagle</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3355,7 +3355,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Construcciones y Carpintería Naval CONCAR S.A.</t>
+          <t>Pesquera Cabo Pilar S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -3368,12 +3368,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6112&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6114&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3388,7 +3388,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Islotes Eclaireurs (201123004) Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Isla Delia (201123007) Canal Beagle</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3403,7 +3403,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Construcciones y Carpintería Naval CONCAR S.A.</t>
+          <t>Pesquera Cabo Pilar S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -3416,12 +3416,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3436,7 +3436,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Punta Norte (201123012) Paso Picton Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Islote Solitario (201123010) Paso Picton Canal Beagle</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3469,7 +3469,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6114&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3484,7 +3484,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Isla Delia (201123007) Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Área Puerto Toro Paso Picton - Canal Beagle (201123011)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3517,7 +3517,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3532,7 +3532,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Islote Solitario (201123010) Paso Picton Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Bahía Virginia (201123003) Canal Beagle</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3547,7 +3547,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Pesquera Cabo Pilar S.A.</t>
+          <t>Construcciones y Carpintería Naval CONCAR S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -3560,12 +3560,12 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6112&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3580,7 +3580,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Isla Martínez (201123001) Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Islotes Eclaireurs (201123004) Canal Beagle</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3613,7 +3613,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3628,7 +3628,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Punta Burshem (201123002) Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Isla Martínez (201123001) Canal Beagle</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3661,7 +3661,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6118&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3676,7 +3676,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Área Puerto Toro Paso Picton - Canal Beagle (201123011)</t>
+          <t>Centro de Engorda de Salmonídeos Sector Punta Burshem (201123002) Canal Beagle</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3691,7 +3691,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Pesquera Cabo Pilar S.A.</t>
+          <t>Construcciones y Carpintería Naval CONCAR S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -3704,12 +3704,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6118&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">

--- a/data/Cabo de Hornos.xlsx
+++ b/data/Cabo de Hornos.xlsx
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 25, SENO BRUJO.</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 12, SENO CHASCO, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123013</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6212345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6094490&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 12, SENO CHASCO, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123013</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 15, SENO CHASCO. Nº PERT: 207123016</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6094490&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6097695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 15, SENO CHASCO. Nº PERT: 207123016</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 25, SENO BRUJO.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6097695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6212345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 16, PENINSULA BRECKNOCK, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123017</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 18, SENO BRUJO, CABO DE HORNOS.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6099113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6233092&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 8, PENÍNSULA BRECKNOCK.</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 4, PENÍNSULA BRECKNOCK. Nº PERT: 207123005</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6211846&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089506&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 4, PENÍNSULA BRECKNOCK. Nº PERT: 207123005</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 16, PENINSULA BRECKNOCK, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123017</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089506&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6099113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 18, SENO BRUJO, CABO DE HORNOS.</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 8, PENÍNSULA BRECKNOCK.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6233092&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6211846&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Punta Norte (201123012) Paso Picton Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Bahía Virginia (201123003) Canal Beagle</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3355,7 +3355,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Pesquera Cabo Pilar S.A.</t>
+          <t>Construcciones y Carpintería Naval CONCAR S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -3368,12 +3368,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6114&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6112&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3388,7 +3388,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Isla Delia (201123007) Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Islotes Eclaireurs (201123004) Canal Beagle</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3403,7 +3403,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Pesquera Cabo Pilar S.A.</t>
+          <t>Construcciones y Carpintería Naval CONCAR S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -3416,12 +3416,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3436,7 +3436,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Islote Solitario (201123010) Paso Picton Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Punta Norte (201123012) Paso Picton Canal Beagle</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3469,7 +3469,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6114&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3484,7 +3484,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Área Puerto Toro Paso Picton - Canal Beagle (201123011)</t>
+          <t>Centro de Engorda de Salmonídeos Sector Isla Delia (201123007) Canal Beagle</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3517,7 +3517,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3532,7 +3532,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Bahía Virginia (201123003) Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Islote Solitario (201123010) Paso Picton Canal Beagle</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3547,7 +3547,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Construcciones y Carpintería Naval CONCAR S.A.</t>
+          <t>Pesquera Cabo Pilar S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -3560,12 +3560,12 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6112&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3580,7 +3580,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Islotes Eclaireurs (201123004) Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Isla Martínez (201123001) Canal Beagle</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3613,7 +3613,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3628,7 +3628,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Isla Martínez (201123001) Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Punta Burshem (201123002) Canal Beagle</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3661,7 +3661,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6118&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3676,7 +3676,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Punta Burshem (201123002) Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Área Puerto Toro Paso Picton - Canal Beagle (201123011)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3691,7 +3691,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Construcciones y Carpintería Naval CONCAR S.A.</t>
+          <t>Pesquera Cabo Pilar S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -3704,12 +3704,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6118&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">

--- a/data/Cabo de Hornos.xlsx
+++ b/data/Cabo de Hornos.xlsx
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 12, SENO CHASCO, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123013</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 25, SENO BRUJO.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6094490&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6212345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 15, SENO CHASCO. Nº PERT: 207123016</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 12, SENO CHASCO, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123013</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6097695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6094490&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 25, SENO BRUJO.</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 15, SENO CHASCO. Nº PERT: 207123016</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6212345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6097695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 18, SENO BRUJO, CABO DE HORNOS.</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 16, PENINSULA BRECKNOCK, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123017</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6233092&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6099113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 4, PENÍNSULA BRECKNOCK. Nº PERT: 207123005</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 8, PENÍNSULA BRECKNOCK.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089506&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6211846&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 16, PENINSULA BRECKNOCK, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123017</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 4, PENÍNSULA BRECKNOCK. Nº PERT: 207123005</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6099113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089506&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 8, PENÍNSULA BRECKNOCK.</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 18, SENO BRUJO, CABO DE HORNOS.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6211846&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6233092&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Bahía Virginia (201123003) Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Punta Norte (201123012) Paso Picton Canal Beagle</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3355,7 +3355,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Construcciones y Carpintería Naval CONCAR S.A.</t>
+          <t>Pesquera Cabo Pilar S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -3368,12 +3368,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6112&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6114&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3388,7 +3388,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Islotes Eclaireurs (201123004) Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Isla Delia (201123007) Canal Beagle</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3403,7 +3403,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Construcciones y Carpintería Naval CONCAR S.A.</t>
+          <t>Pesquera Cabo Pilar S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -3416,12 +3416,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3436,7 +3436,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Punta Norte (201123012) Paso Picton Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Islote Solitario (201123010) Paso Picton Canal Beagle</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3469,7 +3469,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6114&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3484,7 +3484,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Isla Delia (201123007) Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Área Puerto Toro Paso Picton - Canal Beagle (201123011)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3517,7 +3517,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3532,7 +3532,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Islote Solitario (201123010) Paso Picton Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Bahía Virginia (201123003) Canal Beagle</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3547,7 +3547,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Pesquera Cabo Pilar S.A.</t>
+          <t>Construcciones y Carpintería Naval CONCAR S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -3560,12 +3560,12 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6112&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3580,7 +3580,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Isla Martínez (201123001) Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Islotes Eclaireurs (201123004) Canal Beagle</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3613,7 +3613,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3628,7 +3628,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Punta Burshem (201123002) Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Isla Martínez (201123001) Canal Beagle</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3661,7 +3661,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6118&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3676,7 +3676,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Área Puerto Toro Paso Picton - Canal Beagle (201123011)</t>
+          <t>Centro de Engorda de Salmonídeos Sector Punta Burshem (201123002) Canal Beagle</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3691,7 +3691,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Pesquera Cabo Pilar S.A.</t>
+          <t>Construcciones y Carpintería Naval CONCAR S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -3704,12 +3704,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6118&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">

--- a/data/Cabo de Hornos.xlsx
+++ b/data/Cabo de Hornos.xlsx
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7089755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7093413&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7089780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7093305&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7093305&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7089780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7093413&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7089755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7079081&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7081076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7080034&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7080230&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7080230&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7080034&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7081076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7079081&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6094490&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6212345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6097695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6094490&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6212345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6097695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6233092&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089506&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089506&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6211846&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6211846&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6233092&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4613948&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4613948&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">

--- a/data/Cabo de Hornos.xlsx
+++ b/data/Cabo de Hornos.xlsx
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7093413&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7089755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7093305&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7089780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7089780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7093305&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7089755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7093413&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7081076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7079081&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7080230&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7080034&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7080034&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7080230&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7079081&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7081076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 12, SENO CHASCO, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123013</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 25, SENO BRUJO.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 15, SENO CHASCO. Nº PERT: 207123016</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 12, SENO CHASCO, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123013</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 25, SENO BRUJO.</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 15, SENO CHASCO. Nº PERT: 207123016</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 18, SENO BRUJO, CABO DE HORNOS.</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 16, PENINSULA BRECKNOCK, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123017</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089506&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6099113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 4, PENÍNSULA BRECKNOCK. Nº PERT: 207123005</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 8, PENÍNSULA BRECKNOCK.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 16, PENINSULA BRECKNOCK, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123017</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 4, PENÍNSULA BRECKNOCK. Nº PERT: 207123005</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6099113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089506&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 8, PENÍNSULA BRECKNOCK.</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 18, SENO BRUJO, CABO DE HORNOS.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4613948&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4613948&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Bahía Virginia (201123003) Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Punta Norte (201123012) Paso Picton Canal Beagle</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3355,7 +3355,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Construcciones y Carpintería Naval CONCAR S.A.</t>
+          <t>Pesquera Cabo Pilar S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -3368,12 +3368,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6112&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6114&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3388,7 +3388,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Islotes Eclaireurs (201123004) Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Isla Delia (201123007) Canal Beagle</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3403,7 +3403,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Construcciones y Carpintería Naval CONCAR S.A.</t>
+          <t>Pesquera Cabo Pilar S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -3416,12 +3416,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3436,7 +3436,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Punta Norte (201123012) Paso Picton Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Islote Solitario (201123010) Paso Picton Canal Beagle</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3469,7 +3469,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6114&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3484,7 +3484,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Isla Delia (201123007) Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Área Puerto Toro Paso Picton - Canal Beagle (201123011)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3517,7 +3517,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3532,7 +3532,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Islote Solitario (201123010) Paso Picton Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Bahía Virginia (201123003) Canal Beagle</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3547,7 +3547,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Pesquera Cabo Pilar S.A.</t>
+          <t>Construcciones y Carpintería Naval CONCAR S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -3560,12 +3560,12 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6112&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3580,7 +3580,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Isla Martínez (201123001) Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Islotes Eclaireurs (201123004) Canal Beagle</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3613,7 +3613,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3628,7 +3628,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Punta Burshem (201123002) Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Isla Martínez (201123001) Canal Beagle</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3661,7 +3661,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6118&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3676,7 +3676,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Área Puerto Toro Paso Picton - Canal Beagle (201123011)</t>
+          <t>Centro de Engorda de Salmonídeos Sector Punta Burshem (201123002) Canal Beagle</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3691,7 +3691,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Pesquera Cabo Pilar S.A.</t>
+          <t>Construcciones y Carpintería Naval CONCAR S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -3704,12 +3704,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6118&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">

--- a/data/Cabo de Hornos.xlsx
+++ b/data/Cabo de Hornos.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J84"/>
+  <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Planta de Almacenamiento de GLP para uso Residencial, Comercial e Industrial Puerto Williams</t>
+          <t>Ampliación Hotel Lakutaia</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Gasco GLP S.A.</t>
+          <t>Turismo y Hoteles Navarino S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2000</v>
+        <v>30000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>30/10/2020</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148815701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160073144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Infraestructura Portuaria Multipropósito en Puerto Williams</t>
+          <t>Planta de Almacenamiento de GLP para uso Residencial, Comercial e Industrial Puerto Williams</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CONSORCIO PUERTO WILLIAMS ARAUCO CONPAX S.A</t>
+          <t>Gasco GLP S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>32000</v>
+        <v>2000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>19/12/2017</t>
+          <t>30/10/2020</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137970709&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148815701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>CONSORCIO PUERTO WILLIAMS ARAUCO CONPAX S.A</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -543,17 +543,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>17/02/2017</t>
+          <t>19/12/2017</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132107090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137970709&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Centro de Abastecimiento Industrial de Combustibles en Puerto Williams</t>
+          <t>Infraestructura Portuaria Multipropósito en Puerto Williams</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Energía del Sur S.A.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>600</v>
+        <v>32000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>22/04/2015</t>
+          <t>17/02/2017</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130376174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132107090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ENERGÍA DEL SUR S.A</t>
+          <t>Energía del Sur S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -639,17 +639,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>23/03/2015</t>
+          <t>22/04/2015</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130323973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130376174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Modificación y Mejoramiento del Sistema de Alcantarillado de Puerto Williams</t>
+          <t>Centro de Abastecimiento Industrial de Combustibles en Puerto Williams</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Gobernación Provincial de la Antártica Chilena</t>
+          <t>ENERGÍA DEL SUR S.A</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4000</v>
+        <v>600</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>21/03/2013</t>
+          <t>23/03/2015</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7987226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130323973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>"PLAN DEMANEJO PARQUE ETNOBOTANICO OMORA"</t>
+          <t>Modificación y Mejoramiento del Sistema de Alcantarillado de Puerto Williams</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Fundación Omora</t>
+          <t>Gobernación Provincial de la Antártica Chilena</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>30</v>
+        <v>4000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>14/02/2013</t>
+          <t>21/03/2013</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7829817&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7987226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>"INSTALACIÓN SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS Y MEJORAMIENTO SISTEMA DE ALCANTARILLADO DE PUERTO WILLIAMS"</t>
+          <t>"PLAN DEMANEJO PARQUE ETNOBOTANICO OMORA"</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Gobernación Provincial de la Antártica Chilena</t>
+          <t>Fundación Omora</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3950</v>
+        <v>30</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>24/01/2013</t>
+          <t>14/02/2013</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7603838&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7829817&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>"Ampliación de Biomasa, Centro de Engorda de Salmónidos, Canal Beagle al Sur de Isla Delia, Comuna de Cabo de Hornos, XII Región. Pert N° 210123001"</t>
+          <t>"INSTALACIÓN SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS Y MEJORAMIENTO SISTEMA DE ALCANTARILLADO DE PUERTO WILLIAMS"</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Pesquera Cabo Pilar S.A.</t>
+          <t>Gobernación Provincial de la Antártica Chilena</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2600</v>
+        <v>3950</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>23/07/2012</t>
+          <t>24/01/2013</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7053756&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7603838&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>"Ampliación de Biomasa, Centro de Engorda de Salmónidos, Paso Picton Isla Navarino. Comuna de Cabo de Hornos, XII Región. Pert N°210123002"</t>
+          <t>"Ampliación de Biomasa, Centro de Engorda de Salmónidos, Canal Beagle al Sur de Isla Delia, Comuna de Cabo de Hornos, XII Región. Pert N° 210123001"</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7053771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7053756&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>"Ampliación de Biomasa, Centro de Engorda de Salmónidos, Paso Picton Isla Navarino. Comuna de Cabo de Hornos, XII Región. Pert N° 210123004"</t>
+          <t>"Ampliación de Biomasa, Centro de Engorda de Salmónidos, Paso Picton Isla Navarino. Comuna de Cabo de Hornos, XII Región. Pert N°210123002"</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7053835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7053771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>"Ampliación de Biomasa, Centro de Engorda de Salmónidos, Paso Picton Isla Navarino. Comuna de Cabo de Hornos, XII Región. Pert N° 210123003"</t>
+          <t>"Ampliación de Biomasa, Centro de Engorda de Salmónidos, Paso Picton Isla Navarino. Comuna de Cabo de Hornos, XII Región. Pert N° 210123004"</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7053846&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7053835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CENTRO SECTOR AL OESTE DE ISLOTE PETIT, COMUNA DE NAVARINO, XIIª REGIÓN Nº PERT:207123076</t>
+          <t>"Ampliación de Biomasa, Centro de Engorda de Salmónidos, Paso Picton Isla Navarino. Comuna de Cabo de Hornos, XII Región. Pert N° 210123003"</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Pesquera Cabo Pilar S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1000</v>
+        <v>2600</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>06/07/2012</t>
+          <t>23/07/2012</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7089755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7053846&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CENTRO SECTOR FRENTE A ISLOTE PETIT, COMUNA DE NAVARINO, XIIª REGION, Nº PERT: 207123075</t>
+          <t>CENTRO SECTOR AL OESTE DE ISLOTE PETIT, COMUNA DE NAVARINO, XIIª REGIÓN Nº PERT:207123076</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7089780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7089755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmónidos, Canal Cockburn, Sector Norte Isla Joaquín, XII° Región, Solicitud N° 207123071</t>
+          <t>CENTRO SECTOR FRENTE A ISLOTE PETIT, COMUNA DE NAVARINO, XIIª REGION, Nº PERT: 207123075</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1115,7 +1115,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7093305&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7089780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonideos, Canal Cockburn, Sector Sur de Isla King, XII° Región, Solicitud N° 207123055</t>
+          <t>Centro de Cultivo de Salmónidos, Canal Cockburn, Sector Norte Isla Joaquín, XII° Región, Solicitud N° 207123071</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7093413&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7093305&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 22, SENO BRUJO, PTO. ALEGRÍA, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123023</t>
+          <t>Centro de Cultivo de Salmonideos, Canal Cockburn, Sector Sur de Isla King, XII° Región, Solicitud N° 207123055</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>04/07/2012</t>
+          <t>06/07/2012</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7079081&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7093413&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 38, SENO BLUFF, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123039</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 22, SENO BRUJO, PTO. ALEGRÍA, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123023</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7080034&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7079081&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 42, ISLA AMAYA, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123043</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 38, SENO BLUFF, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123039</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7080230&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7080034&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 44, PTA KING, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123045</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 42, ISLA AMAYA, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123043</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7081076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7080230&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 12, SENO CHASCO, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123013</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 44, PTA KING, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123045</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>11/11/2011</t>
+          <t>04/07/2012</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6094490&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7081076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 15, SENO CHASCO. Nº PERT: 207123016</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 12, SENO CHASCO, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123013</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6097695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6094490&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 25, SENO BRUJO.</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 15, SENO CHASCO. Nº PERT: 207123016</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6212345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6097695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 18, SENO BRUJO, CABO DE HORNOS.</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 25, SENO BRUJO.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>10/11/2011</t>
+          <t>11/11/2011</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6233092&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6212345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 4, PENÍNSULA BRECKNOCK. Nº PERT: 207123005</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 18, SENO BRUJO, CABO DE HORNOS.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089506&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6233092&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 16, PENINSULA BRECKNOCK, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123017</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 4, PENÍNSULA BRECKNOCK. Nº PERT: 207123005</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6099113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089506&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PLAN DE CIERRE VERTEDERO PUERTO WILLIAMS</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 16, PENINSULA BRECKNOCK, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123017</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,11 +1687,11 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Cabo de Hornos</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>303</v>
+        <v>2600</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1700,12 +1700,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6177870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6099113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 8, PENÍNSULA BRECKNOCK.</t>
+          <t>PLAN DE CIERRE VERTEDERO PUERTO WILLIAMS</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,11 +1735,11 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Ilustre Municipalidad de Cabo de Hornos</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2600</v>
+        <v>303</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1748,12 +1748,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6211846&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6177870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE ENGORDA DE SALMONIDEOS, CANAL BEAGLE AL SUR DE ISLA DELIA, COMUNA DE CABO DE HORNOS, XII REGIÓN. Solicitud N° 210123001</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 8, PENÍNSULA BRECKNOCK.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Pesquera Cabo Pilar S.A.</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>26/07/2011</t>
+          <t>10/11/2011</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5849829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6211846&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico Centro de Engorda de Salmonideos, Paso Picton, Isla Navarino, Comuna de Cabo de Hornos, XII Región, Solicitud 210123002</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE ENGORDA DE SALMONIDEOS, CANAL BEAGLE AL SUR DE ISLA DELIA, COMUNA DE CABO DE HORNOS, XII REGIÓN. Solicitud N° 210123001</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5852341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5849829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico Centro de Engorda de Salmonideos, Paso Picton Isla Navarino, Comuna de Cabo de Hornos, XII Región. Solicitud Número 210123003</t>
+          <t>Modificación de Proyecto Técnico Centro de Engorda de Salmonideos, Paso Picton, Isla Navarino, Comuna de Cabo de Hornos, XII Región, Solicitud 210123002</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5852631&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5852341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico Centro de Engorda de Salmonideos, Paso Picton Isla Navarino, Comuna de Cabo de Hornos, XII Región. Solicitud Número 210123004</t>
+          <t>Modificación de Proyecto Técnico Centro de Engorda de Salmonideos, Paso Picton Isla Navarino, Comuna de Cabo de Hornos, XII Región. Solicitud Número 210123003</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5852946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5852631&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN, ISLA TIERRA DEL FUEGO, PENINSULA BRECKNOCK. Nº PERT: 207123004</t>
+          <t>Modificación de Proyecto Técnico Centro de Engorda de Salmonideos, Paso Picton Isla Navarino, Comuna de Cabo de Hornos, XII Región. Solicitud Número 210123004</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Pesquera Cabo Pilar S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>26/07/2011</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4636962&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5852946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN, SENO CHASCO. Nº PERT: 207123015.</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN, ISLA TIERRA DEL FUEGO, PENINSULA BRECKNOCK. Nº PERT: 207123004</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2031,17 +2031,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>04/06/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4636962&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN, SENO BRUJO. Nº PERT: 207123024.</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN, SENO CHASCO. Nº PERT: 207123015.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4613948&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN, SENO BRUJO. PUERTO ALEGRIA. Nº PERT: 207123023.</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN, SENO BRUJO. Nº PERT: 207123024.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2127,17 +2127,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>03/06/2010</t>
+          <t>04/06/2010</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4613762&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4613948&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN, SENO CHASCO. Nº PERT: 207123014.</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN, SENO BRUJO. PUERTO ALEGRIA. Nº PERT: 207123023.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2175,17 +2175,17 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>02/06/2010</t>
+          <t>03/06/2010</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4610713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4613762&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN-PENINSULA BRECKNOCK. Nº PERT: 207123004.</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN, SENO CHASCO. Nº PERT: 207123014.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2223,17 +2223,17 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>25/05/2010</t>
+          <t>02/06/2010</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4610713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>PLAN DE CIERRE Y OPERACIÓN TRANSITORIA DEL VERTEDERO PUERTO WILLIAMS (e-seia)</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN-PENINSULA BRECKNOCK. Nº PERT: 207123004.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Cabo de Hornos</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>17/08/2009</t>
+          <t>25/05/2010</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3973014&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2315,21 +2315,21 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>12/08/2009</t>
+          <t>17/08/2009</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3951064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3973014&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,10 +2344,14 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Proyecto Ecoturístico Puerto Isla Hornos</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
+          <t>PLAN DE CIERRE Y OPERACIÓN TRANSITORIA DEL VERTEDERO PUERTO WILLIAMS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr">
         <is>
           <t>Duodécima</t>
@@ -2355,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Servicio Maritimo y Turistico Cabo de Hornos S.A</t>
+          <t>Ilustre Municipalidad de Cabo de Hornos</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>3200</v>
+        <v>70</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>04/03/2009</t>
+          <t>12/08/2009</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3585827&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3951064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2388,14 +2392,10 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Instalación Sistema de Tratamiento de Aguas Servidas y Mejoramiento Sistema de Alcantarillado de Puerto Williams (e-seia)</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Proyecto Ecoturístico Puerto Isla Hornos</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
           <t>Duodécima</t>
@@ -2403,15 +2403,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Gobernación Provincial de Antártica Chilena</t>
+          <t>Servicio Maritimo y Turistico Cabo de Hornos S.A</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1040</v>
+        <v>3200</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>29/02/2008</t>
+          <t>04/03/2009</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2421,7 +2421,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2746017&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3585827&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2436,10 +2436,14 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Construcción Camino Estancia Vicuña Yendegaia</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr"/>
+          <t>Instalación Sistema de Tratamiento de Aguas Servidas y Mejoramiento Sistema de Alcantarillado de Puerto Williams (e-seia)</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D44" t="inlineStr">
         <is>
           <t>Duodécima</t>
@@ -2447,15 +2451,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Gobernación Provincial de Antártica Chilena</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>20000</v>
+        <v>1040</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>20/11/2007</t>
+          <t>29/02/2008</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2465,7 +2469,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2517023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2746017&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2480,7 +2484,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Proyecto Turístico Puerto Cabo de Hornos</t>
+          <t>Construcción Camino Estancia Vicuña Yendegaia</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2491,25 +2495,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Servicio Maritimo y Turistico Cabo de Hornos S.A</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>3200</v>
+        <v>20000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>30/10/2007</t>
+          <t>20/11/2007</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2503031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2517023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2524,14 +2528,10 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Proyecto Hotel, Spa y Marina Onashaga (e-seia)</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Proyecto Turístico Puerto Cabo de Hornos</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
           <t>Duodécima</t>
@@ -2539,15 +2539,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ESEMAR S.A.</t>
+          <t>Servicio Maritimo y Turistico Cabo de Hornos S.A</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>5800</v>
+        <v>3200</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>25/09/2007</t>
+          <t>30/10/2007</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2557,7 +2557,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2391647&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2503031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2572,7 +2572,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Hotel, Spa y Marina Onashaga (e-seia)</t>
+          <t>Proyecto Hotel, Spa y Marina Onashaga (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2591,21 +2591,21 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>5793</v>
+        <v>5800</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>01/08/2007</t>
+          <t>25/09/2007</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2391647&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2620,7 +2620,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Hotel, Spa y Marina Onashaga (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2630,20 +2630,20 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>ESEMAR S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>300</v>
+        <v>5793</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>01/08/2007</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2653,7 +2653,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2668,7 +2668,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE MAGALLANES Y LA ANTÁRTICA CHILENA (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2678,30 +2678,30 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>25/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2214933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>MODIFICACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE MAGALLANES Y LA ANTÁRTICA CHILENA (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2726,30 +2726,30 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>25/06/2007</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2214933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2764,7 +2764,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2787,17 +2787,17 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>SISTEMA ALTERNATIVO DE MANEJO DE EFLUENTES MEDIANTE EMISARIO SUBMARINO Manejo de Efluentes mediante Emisario Submarino (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2822,30 +2822,30 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Productos Marinos Puerto Williams Limitada</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>08/11/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2860,7 +2860,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Recuperación Instalaciones Alcamar Isla Hornos (e-seia)</t>
+          <t>SISTEMA ALTERNATIVO DE MANEJO DE EFLUENTES MEDIANTE EMISARIO SUBMARINO Manejo de Efluentes mediante Emisario Submarino (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2875,15 +2875,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Depto. de Obras y Construcciones de la III Zona Naval</t>
+          <t>Productos Marinos Puerto Williams Limitada</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>21/09/2006</t>
+          <t>08/11/2006</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2893,7 +2893,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1702161&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2908,7 +2908,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO Y DESCARGA DE EFLUENTES MEDIANTE EMISARIO SUBMARINO (e-seia)</t>
+          <t>Recuperación Instalaciones Alcamar Isla Hornos (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2923,15 +2923,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Compañía de Comercio y Desarrollo Pesquero Magallanes Limitada - CIDEPES LTDA</t>
+          <t>Depto. de Obras y Construcciones de la III Zona Naval</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>08/09/2006</t>
+          <t>21/09/2006</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1669184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1702161&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2956,7 +2956,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>SISTEMA ALTERNATIVO DE MANEJO DE EFLUENTES MEDIANTE EMISARIO SUBMARINO (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO Y DESCARGA DE EFLUENTES MEDIANTE EMISARIO SUBMARINO (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2971,25 +2971,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Productos Marinos Puerto Williams Limitada</t>
+          <t>Compañía de Comercio y Desarrollo Pesquero Magallanes Limitada - CIDEPES LTDA</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>09/03/2006</t>
+          <t>08/09/2006</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1329173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1669184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3004,7 +3004,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>SISTEMA DE MANEJO DE EFLUENTES CON EMISARIO SUBMARINO (e-seia)</t>
+          <t>SISTEMA ALTERNATIVO DE MANEJO DE EFLUENTES MEDIANTE EMISARIO SUBMARINO (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3019,25 +3019,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Construcciones y Carpintería Naval CONCAR S.A.</t>
+          <t>Productos Marinos Puerto Williams Limitada</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>17/02/2006</t>
+          <t>09/03/2006</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1282357&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1329173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3052,7 +3052,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Recuperación Instalaciones Alcamar Isla Hornos (e-seia)</t>
+          <t>SISTEMA DE MANEJO DE EFLUENTES CON EMISARIO SUBMARINO (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3067,25 +3067,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Servicio de Obras y Construcciones de la Armada</t>
+          <t>Construcciones y Carpintería Naval CONCAR S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>14/12/2005</t>
+          <t>17/02/2006</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1166607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1282357&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3100,12 +3100,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Centro de Manejo de Residuos Sólidos Cabo de Hornos</t>
+          <t>Recuperación Instalaciones Alcamar Isla Hornos (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3115,25 +3115,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Cabo de Hornos</t>
+          <t>Servicio de Obras y Construcciones de la Armada</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>16/05/2005</t>
+          <t>14/12/2005</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=862411&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1166607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3148,12 +3148,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Cabo de Hornos - Sector Isla Navarino (e-seia)</t>
+          <t>Centro de Manejo de Residuos Sólidos Cabo de Hornos</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3167,11 +3167,11 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>18/11/2004</t>
+          <t>16/05/2005</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3181,7 +3181,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=514608&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=862411&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3196,7 +3196,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Recursos Hidrobiológicos en Buque Factoría Cabo de Hornos (e-seia)</t>
+          <t>Modificación Plan Regulador Comunal de Cabo de Hornos - Sector Isla Navarino (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3206,20 +3206,20 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Ilustre Municipalidad de Cabo de Hornos</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>18500</v>
+        <v>0</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>02/06/2004</t>
+          <t>18/11/2004</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3229,7 +3229,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=362582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=514608&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3244,7 +3244,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Cabo de Hornos (e-seia)</t>
+          <t>Planta Procesadora de Recursos Hidrobiológicos en Buque Factoría Cabo de Hornos (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3254,20 +3254,20 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Cabo de Hornos</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>18500</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>07/01/2004</t>
+          <t>02/06/2004</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3277,7 +3277,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=243367&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=362582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3292,7 +3292,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Región de Magallanes y Antártica Chilena (e-seia)</t>
+          <t>Modificación Plan Regulador Comunal de Cabo de Hornos (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3307,7 +3307,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial XIIª Región - Ministerio de Vivienda y Urbanismo</t>
+          <t>Ilustre Municipalidad de Cabo de Hornos</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>20/08/2003</t>
+          <t>07/01/2004</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3325,7 +3325,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131263&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=243367&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Bahía Virginia (201123003) Canal Beagle</t>
+          <t>Plan Regional de Desarrollo Urbano Región de Magallanes y Antártica Chilena (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3355,25 +3355,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Construcciones y Carpintería Naval CONCAR S.A.</t>
+          <t>Secretaría Regional Ministerial XIIª Región - Ministerio de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>20/12/2002</t>
+          <t>20/08/2003</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6112&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131263&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3388,7 +3388,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Islotes Eclaireurs (201123004) Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Bahía Virginia (201123003) Canal Beagle</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3421,7 +3421,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6112&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3436,7 +3436,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Punta Norte (201123012) Paso Picton Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Islotes Eclaireurs (201123004) Canal Beagle</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3451,7 +3451,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Pesquera Cabo Pilar S.A.</t>
+          <t>Construcciones y Carpintería Naval CONCAR S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -3464,12 +3464,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6114&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3484,7 +3484,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Isla Delia (201123007) Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Punta Norte (201123012) Paso Picton Canal Beagle</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3517,7 +3517,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6114&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3532,7 +3532,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Islote Solitario (201123010) Paso Picton Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Isla Delia (201123007) Canal Beagle</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3565,7 +3565,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3580,7 +3580,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Isla Martínez (201123001) Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Islote Solitario (201123010) Paso Picton Canal Beagle</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3595,7 +3595,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Construcciones y Carpintería Naval CONCAR S.A.</t>
+          <t>Pesquera Cabo Pilar S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -3608,12 +3608,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3628,7 +3628,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Punta Burshem (201123002) Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Isla Martínez (201123001) Canal Beagle</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3661,7 +3661,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6118&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3676,7 +3676,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Área Puerto Toro Paso Picton - Canal Beagle (201123011)</t>
+          <t>Centro de Engorda de Salmonídeos Sector Punta Burshem (201123002) Canal Beagle</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3691,7 +3691,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Pesquera Cabo Pilar S.A.</t>
+          <t>Construcciones y Carpintería Naval CONCAR S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -3704,12 +3704,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6118&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3724,7 +3724,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Islote Curioso (201123006) Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Área Puerto Toro Paso Picton - Canal Beagle (201123011)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3739,7 +3739,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Construcciones y Carpintería Naval CONCAR S.A.</t>
+          <t>Pesquera Cabo Pilar S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -3752,12 +3752,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3772,7 +3772,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Productos del Mar en Puerto Williams</t>
+          <t>Centro de Engorda de Salmonídeos Sector Islote Curioso (201123006) Canal Beagle</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3787,25 +3787,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Productos Marinos Puerto Williams Limitada</t>
+          <t>Construcciones y Carpintería Naval CONCAR S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>180</v>
+        <v>2300</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>28/10/2002</t>
+          <t>20/12/2002</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5959&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3820,7 +3820,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Senderos de Chile Cerro Bandera en la Isla de Navarino</t>
+          <t>Planta Procesadora de Productos del Mar en Puerto Williams</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3835,25 +3835,25 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Cabo de Hornos</t>
+          <t>Productos Marinos Puerto Williams Limitada</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>16/07/2002</t>
+          <t>28/10/2002</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5959&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3868,7 +3868,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Instalación del Servicio de Alcantarillado de Puerto Toro</t>
+          <t>Senderos de Chile Cerro Bandera en la Isla de Navarino</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3883,25 +3883,25 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Dirección de Obras Hidráulicas - XIIª Región</t>
+          <t>Ilustre Municipalidad de Cabo de Hornos</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>25/02/2002</t>
+          <t>16/07/2002</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5134&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3916,7 +3916,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Mejoramiento del Servicio de Agua Potable Rural de Puerto Toro</t>
+          <t>Instalación del Servicio de Alcantarillado de Puerto Toro</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3935,7 +3935,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>260</v>
+        <v>140</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5134&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3964,7 +3964,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos Sector Oeste Bahía Honda (200123001) Sector Sur Oeste Bahía Honda (200123002) Isla Navarino</t>
+          <t>Mejoramiento del Servicio de Agua Potable Rural de Puerto Toro</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3979,25 +3979,25 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>ChileCultivos S.A.</t>
+          <t>Dirección de Obras Hidráulicas - XIIª Región</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>7200</v>
+        <v>260</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>01/10/2001</t>
+          <t>25/02/2002</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4387&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4012,7 +4012,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos Sector Grupo Holger (99121133) Sector Weste Grupo Holger (99121132) Sector Isla Grupo Holger (200123003) Isla Navarino</t>
+          <t>Centro de Engorda Salmonídeos Sector Oeste Bahía Honda (200123001) Sector Sur Oeste Bahía Honda (200123002) Isla Navarino</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4040,12 +4040,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4388&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4387&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4060,7 +4060,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-S.Chasco(99121088-99121089-99121090-99121092-99121093-99121094-99121095-99121097-99121100)-S.Chasco-Pto. Consuelo(99121091)-P.Brecknock (99121098-99121101)-S.Chasco-P.Brecknock(99121102)Canal Cockburn I.T. del Fuego-Grupo D</t>
+          <t>Centro de Engorda Salmonídeos Sector Grupo Holger (99121133) Sector Weste Grupo Holger (99121132) Sector Isla Grupo Holger (200123003) Isla Navarino</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4075,25 +4075,25 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>ChileCultivos S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1500</v>
+        <v>7200</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>28/09/2001</t>
+          <t>01/10/2001</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4380&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4388&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4108,7 +4108,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Seno Brujo (99121072- 99121078-99121079-99121081-99121080-99121083-99121084)-Península Rolando (99121073)-Canal Cockburn Isla Tierra del Fuego-Grupo E</t>
+          <t>Centro de Engorda Salmonídeos-S.Chasco(99121088-99121089-99121090-99121092-99121093-99121094-99121095-99121097-99121100)-S.Chasco-Pto. Consuelo(99121091)-P.Brecknock (99121098-99121101)-S.Chasco-P.Brecknock(99121102)Canal Cockburn I.T. del Fuego-Grupo D</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4141,7 +4141,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4381&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4156,7 +4156,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Seno Sargazos Norte (99121076)-Seno Sargazos Sur (99121077) Canal Cockburn-Isla Tierra del Fuego-Grupo F</t>
+          <t>Centro de Engorda Salmonídeos-Seno Brujo (99121072- 99121078-99121079-99121081-99121080-99121083-99121084)-Península Rolando (99121073)-Canal Cockburn Isla Tierra del Fuego-Grupo E</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4189,7 +4189,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4382&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4381&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4204,7 +4204,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Seno Bluff (99121105)-Seno Bluff (99121106)-Seno Bluff (99121107)-Seno Bluff (99121108)-Seno Bluff (99121111) Canal Cockburn-Isla Tierra del Fuego-Grupo G</t>
+          <t>Centro de Engorda Salmonídeos-Seno Sargazos Norte (99121076)-Seno Sargazos Sur (99121077) Canal Cockburn-Isla Tierra del Fuego-Grupo F</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4237,7 +4237,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4383&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4382&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4252,7 +4252,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Seno Chasco (99121087) Canal Cockburn-Isla Tierra del Fuego-Grupo H</t>
+          <t>Centro de Engorda Salmonídeos-Seno Bluff (99121105)-Seno Bluff (99121106)-Seno Bluff (99121107)-Seno Bluff (99121108)-Seno Bluff (99121111) Canal Cockburn-Isla Tierra del Fuego-Grupo G</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4285,7 +4285,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4384&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4383&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4300,7 +4300,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Centro de Apoyo Logístico Caleta Lewaia Canal Beagle</t>
+          <t>Centro de Engorda Salmonídeos-Seno Chasco (99121087) Canal Cockburn-Isla Tierra del Fuego-Grupo H</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4315,25 +4315,25 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Cristian Boré Pineda</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>170</v>
+        <v>1500</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>14/08/2001</t>
+          <t>28/09/2001</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4230&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4384&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4348,43 +4348,91 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
+          <t>Centro de Apoyo Logístico Caleta Lewaia Canal Beagle</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Duodécima</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Cristian Boré Pineda</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>170</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>14/08/2001</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Desistido</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4230&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Cabo de Hornos</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
           <t>Modificación Plan Regulador Comunal de Navarino</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Duodécima</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Duodécima</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
         <is>
           <t>Ilustre Municipalidad de Cabo de Hornos</t>
         </is>
       </c>
-      <c r="F84" t="n">
+      <c r="F85" t="n">
         <v>0</v>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>24/05/1999</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I84" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1961&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J84" t="inlineStr">
+      <c r="J85" t="inlineStr">
         <is>
           <t>Cabo de Hornos</t>
         </is>

--- a/data/Cabo de Hornos.xlsx
+++ b/data/Cabo de Hornos.xlsx
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 12, SENO CHASCO, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123013</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 25, SENO BRUJO.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6094490&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6212345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 15, SENO CHASCO. Nº PERT: 207123016</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 12, SENO CHASCO, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123013</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6097695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6094490&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 25, SENO BRUJO.</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 15, SENO CHASCO. Nº PERT: 207123016</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6212345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6097695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 18, SENO BRUJO, CABO DE HORNOS.</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 16, PENINSULA BRECKNOCK, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123017</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6233092&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6099113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 4, PENÍNSULA BRECKNOCK. Nº PERT: 207123005</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 8, PENÍNSULA BRECKNOCK.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089506&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6211846&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 16, PENINSULA BRECKNOCK, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123017</t>
+          <t>PLAN DE CIERRE VERTEDERO PUERTO WILLIAMS</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,11 +1687,11 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Ilustre Municipalidad de Cabo de Hornos</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2600</v>
+        <v>303</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1700,12 +1700,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6099113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6177870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PLAN DE CIERRE VERTEDERO PUERTO WILLIAMS</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 18, SENO BRUJO, CABO DE HORNOS.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,11 +1735,11 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Cabo de Hornos</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>303</v>
+        <v>2600</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1748,12 +1748,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6177870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6233092&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 8, PENÍNSULA BRECKNOCK.</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 4, PENÍNSULA BRECKNOCK. Nº PERT: 207123005</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6211846&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089506&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -3388,7 +3388,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Bahía Virginia (201123003) Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Punta Norte (201123012) Paso Picton Canal Beagle</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3403,7 +3403,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Construcciones y Carpintería Naval CONCAR S.A.</t>
+          <t>Pesquera Cabo Pilar S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -3416,12 +3416,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6112&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6114&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3436,7 +3436,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Islotes Eclaireurs (201123004) Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Isla Delia (201123007) Canal Beagle</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3451,7 +3451,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Construcciones y Carpintería Naval CONCAR S.A.</t>
+          <t>Pesquera Cabo Pilar S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -3464,12 +3464,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3484,7 +3484,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Punta Norte (201123012) Paso Picton Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Islote Solitario (201123010) Paso Picton Canal Beagle</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3517,7 +3517,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6114&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3532,7 +3532,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Isla Delia (201123007) Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Área Puerto Toro Paso Picton - Canal Beagle (201123011)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3565,7 +3565,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3580,7 +3580,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Islote Solitario (201123010) Paso Picton Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Bahía Virginia (201123003) Canal Beagle</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3595,7 +3595,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Pesquera Cabo Pilar S.A.</t>
+          <t>Construcciones y Carpintería Naval CONCAR S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -3608,12 +3608,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6112&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3628,7 +3628,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Isla Martínez (201123001) Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Islotes Eclaireurs (201123004) Canal Beagle</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3661,7 +3661,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3676,7 +3676,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Punta Burshem (201123002) Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Isla Martínez (201123001) Canal Beagle</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3709,7 +3709,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6118&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3724,7 +3724,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Área Puerto Toro Paso Picton - Canal Beagle (201123011)</t>
+          <t>Centro de Engorda de Salmonídeos Sector Punta Burshem (201123002) Canal Beagle</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3739,7 +3739,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Pesquera Cabo Pilar S.A.</t>
+          <t>Construcciones y Carpintería Naval CONCAR S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -3752,12 +3752,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6118&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">

--- a/data/Cabo de Hornos.xlsx
+++ b/data/Cabo de Hornos.xlsx
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 25, SENO BRUJO.</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 12, SENO CHASCO, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123013</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6212345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6094490&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 12, SENO CHASCO, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123013</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 15, SENO CHASCO. Nº PERT: 207123016</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6094490&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6097695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 15, SENO CHASCO. Nº PERT: 207123016</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 25, SENO BRUJO.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6097695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6212345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 16, PENINSULA BRECKNOCK, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123017</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 18, SENO BRUJO, CABO DE HORNOS.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6099113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6233092&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 8, PENÍNSULA BRECKNOCK.</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 4, PENÍNSULA BRECKNOCK. Nº PERT: 207123005</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6211846&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089506&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PLAN DE CIERRE VERTEDERO PUERTO WILLIAMS</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 16, PENINSULA BRECKNOCK, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123017</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,11 +1687,11 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Cabo de Hornos</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>303</v>
+        <v>2600</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1700,12 +1700,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6177870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6099113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 18, SENO BRUJO, CABO DE HORNOS.</t>
+          <t>PLAN DE CIERRE VERTEDERO PUERTO WILLIAMS</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,11 +1735,11 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Ilustre Municipalidad de Cabo de Hornos</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2600</v>
+        <v>303</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1748,12 +1748,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6233092&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6177870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 4, PENÍNSULA BRECKNOCK. Nº PERT: 207123005</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 8, PENÍNSULA BRECKNOCK.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089506&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6211846&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -3388,7 +3388,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Punta Norte (201123012) Paso Picton Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Bahía Virginia (201123003) Canal Beagle</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3403,7 +3403,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Pesquera Cabo Pilar S.A.</t>
+          <t>Construcciones y Carpintería Naval CONCAR S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -3416,12 +3416,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6114&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6112&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3436,7 +3436,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Isla Delia (201123007) Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Islotes Eclaireurs (201123004) Canal Beagle</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3451,7 +3451,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Pesquera Cabo Pilar S.A.</t>
+          <t>Construcciones y Carpintería Naval CONCAR S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -3464,12 +3464,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3484,7 +3484,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Islote Solitario (201123010) Paso Picton Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Punta Norte (201123012) Paso Picton Canal Beagle</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3517,7 +3517,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6114&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3532,7 +3532,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Área Puerto Toro Paso Picton - Canal Beagle (201123011)</t>
+          <t>Centro de Engorda de Salmonídeos Sector Isla Delia (201123007) Canal Beagle</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3565,7 +3565,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3580,7 +3580,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Bahía Virginia (201123003) Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Islote Solitario (201123010) Paso Picton Canal Beagle</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3595,7 +3595,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Construcciones y Carpintería Naval CONCAR S.A.</t>
+          <t>Pesquera Cabo Pilar S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -3608,12 +3608,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6112&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3628,7 +3628,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Islotes Eclaireurs (201123004) Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Isla Martínez (201123001) Canal Beagle</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3661,7 +3661,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3676,7 +3676,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Isla Martínez (201123001) Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Punta Burshem (201123002) Canal Beagle</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3709,7 +3709,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6118&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3724,7 +3724,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Punta Burshem (201123002) Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Área Puerto Toro Paso Picton - Canal Beagle (201123011)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3739,7 +3739,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Construcciones y Carpintería Naval CONCAR S.A.</t>
+          <t>Pesquera Cabo Pilar S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -3752,12 +3752,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6118&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">

--- a/data/Cabo de Hornos.xlsx
+++ b/data/Cabo de Hornos.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PLAN DE CIERRE VERTEDERO PUERTO WILLIAMS</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 4, PENÍNSULA BRECKNOCK. Nº PERT: 207123005</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,11 +1687,11 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Cabo de Hornos</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>303</v>
+        <v>2600</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1700,12 +1700,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6177870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089506&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 18, SENO BRUJO, CABO DE HORNOS.</t>
+          <t>PLAN DE CIERRE VERTEDERO PUERTO WILLIAMS</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,11 +1735,11 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Ilustre Municipalidad de Cabo de Hornos</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2600</v>
+        <v>303</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1748,12 +1748,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6233092&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6177870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 4, PENÍNSULA BRECKNOCK. Nº PERT: 207123005</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 18, SENO BRUJO, CABO DE HORNOS.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089506&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6233092&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">

--- a/data/Cabo de Hornos.xlsx
+++ b/data/Cabo de Hornos.xlsx
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 25, SENO BRUJO.</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 12, SENO CHASCO, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123013</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6212345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6094490&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 12, SENO CHASCO, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123013</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 15, SENO CHASCO. Nº PERT: 207123016</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6094490&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6097695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 15, SENO CHASCO. Nº PERT: 207123016</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 25, SENO BRUJO.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6097695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6212345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 16, PENINSULA BRECKNOCK, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123017</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 18, SENO BRUJO, CABO DE HORNOS.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6099113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6233092&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 8, PENÍNSULA BRECKNOCK.</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 4, PENÍNSULA BRECKNOCK. Nº PERT: 207123005</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6211846&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089506&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 4, PENÍNSULA BRECKNOCK. Nº PERT: 207123005</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 16, PENINSULA BRECKNOCK, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123017</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089506&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6099113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 18, SENO BRUJO, CABO DE HORNOS.</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 8, PENÍNSULA BRECKNOCK.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6233092&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6211846&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -3388,7 +3388,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Punta Norte (201123012) Paso Picton Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Bahía Virginia (201123003) Canal Beagle</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3403,7 +3403,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Pesquera Cabo Pilar S.A.</t>
+          <t>Construcciones y Carpintería Naval CONCAR S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -3416,12 +3416,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6114&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6112&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3436,7 +3436,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Isla Delia (201123007) Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Islotes Eclaireurs (201123004) Canal Beagle</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3451,7 +3451,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Pesquera Cabo Pilar S.A.</t>
+          <t>Construcciones y Carpintería Naval CONCAR S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -3464,12 +3464,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3484,7 +3484,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Islote Solitario (201123010) Paso Picton Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Punta Norte (201123012) Paso Picton Canal Beagle</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3517,7 +3517,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6114&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3532,7 +3532,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Área Puerto Toro Paso Picton - Canal Beagle (201123011)</t>
+          <t>Centro de Engorda de Salmonídeos Sector Isla Delia (201123007) Canal Beagle</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3565,7 +3565,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3580,7 +3580,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Bahía Virginia (201123003) Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Islote Solitario (201123010) Paso Picton Canal Beagle</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3595,7 +3595,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Construcciones y Carpintería Naval CONCAR S.A.</t>
+          <t>Pesquera Cabo Pilar S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -3608,12 +3608,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6112&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3628,7 +3628,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Islotes Eclaireurs (201123004) Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Isla Martínez (201123001) Canal Beagle</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3661,7 +3661,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3676,7 +3676,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Isla Martínez (201123001) Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Punta Burshem (201123002) Canal Beagle</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3709,7 +3709,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6118&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3724,7 +3724,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Punta Burshem (201123002) Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Área Puerto Toro Paso Picton - Canal Beagle (201123011)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3739,7 +3739,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Construcciones y Carpintería Naval CONCAR S.A.</t>
+          <t>Pesquera Cabo Pilar S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -3752,12 +3752,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6118&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">

--- a/data/Cabo de Hornos.xlsx
+++ b/data/Cabo de Hornos.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J85"/>
+  <dimension ref="A1:J86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,7 +439,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Turismo y Hoteles Navarino S.A.</t>
+          <t>Turismo y Hoteles Navarino Ltda.</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -447,17 +447,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>19/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160073144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160259654&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Planta de Almacenamiento de GLP para uso Residencial, Comercial e Industrial Puerto Williams</t>
+          <t>Ampliación Hotel Lakutaia</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Gasco GLP S.A.</t>
+          <t>Turismo y Hoteles Navarino S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2000</v>
+        <v>30000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>30/10/2020</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148815701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160073144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Infraestructura Portuaria Multipropósito en Puerto Williams</t>
+          <t>Planta de Almacenamiento de GLP para uso Residencial, Comercial e Industrial Puerto Williams</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,15 +535,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CONSORCIO PUERTO WILLIAMS ARAUCO CONPAX S.A</t>
+          <t>Gasco GLP S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>32000</v>
+        <v>2000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>19/12/2017</t>
+          <t>30/10/2020</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137970709&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148815701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -583,7 +583,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>CONSORCIO PUERTO WILLIAMS ARAUCO CONPAX S.A</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -591,17 +591,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>17/02/2017</t>
+          <t>19/12/2017</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132107090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137970709&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Centro de Abastecimiento Industrial de Combustibles en Puerto Williams</t>
+          <t>Infraestructura Portuaria Multipropósito en Puerto Williams</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Energía del Sur S.A.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>600</v>
+        <v>32000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>22/04/2015</t>
+          <t>17/02/2017</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130376174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132107090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ENERGÍA DEL SUR S.A</t>
+          <t>Energía del Sur S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -687,17 +687,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>23/03/2015</t>
+          <t>22/04/2015</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130323973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130376174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Modificación y Mejoramiento del Sistema de Alcantarillado de Puerto Williams</t>
+          <t>Centro de Abastecimiento Industrial de Combustibles en Puerto Williams</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Gobernación Provincial de la Antártica Chilena</t>
+          <t>ENERGÍA DEL SUR S.A</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4000</v>
+        <v>600</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>21/03/2013</t>
+          <t>23/03/2015</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7987226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130323973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>"PLAN DEMANEJO PARQUE ETNOBOTANICO OMORA"</t>
+          <t>Modificación y Mejoramiento del Sistema de Alcantarillado de Puerto Williams</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Fundación Omora</t>
+          <t>Gobernación Provincial de la Antártica Chilena</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>30</v>
+        <v>4000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>14/02/2013</t>
+          <t>21/03/2013</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7829817&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7987226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>"INSTALACIÓN SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS Y MEJORAMIENTO SISTEMA DE ALCANTARILLADO DE PUERTO WILLIAMS"</t>
+          <t>"PLAN DEMANEJO PARQUE ETNOBOTANICO OMORA"</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Gobernación Provincial de la Antártica Chilena</t>
+          <t>Fundación Omora</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3950</v>
+        <v>30</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>24/01/2013</t>
+          <t>14/02/2013</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7603838&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7829817&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>"Ampliación de Biomasa, Centro de Engorda de Salmónidos, Canal Beagle al Sur de Isla Delia, Comuna de Cabo de Hornos, XII Región. Pert N° 210123001"</t>
+          <t>"INSTALACIÓN SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS Y MEJORAMIENTO SISTEMA DE ALCANTARILLADO DE PUERTO WILLIAMS"</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Pesquera Cabo Pilar S.A.</t>
+          <t>Gobernación Provincial de la Antártica Chilena</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2600</v>
+        <v>3950</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>23/07/2012</t>
+          <t>24/01/2013</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7053756&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7603838&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>"Ampliación de Biomasa, Centro de Engorda de Salmónidos, Paso Picton Isla Navarino. Comuna de Cabo de Hornos, XII Región. Pert N°210123002"</t>
+          <t>"Ampliación de Biomasa, Centro de Engorda de Salmónidos, Canal Beagle al Sur de Isla Delia, Comuna de Cabo de Hornos, XII Región. Pert N° 210123001"</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7053771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7053756&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>"Ampliación de Biomasa, Centro de Engorda de Salmónidos, Paso Picton Isla Navarino. Comuna de Cabo de Hornos, XII Región. Pert N° 210123004"</t>
+          <t>"Ampliación de Biomasa, Centro de Engorda de Salmónidos, Paso Picton Isla Navarino. Comuna de Cabo de Hornos, XII Región. Pert N°210123002"</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7053835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7053771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>"Ampliación de Biomasa, Centro de Engorda de Salmónidos, Paso Picton Isla Navarino. Comuna de Cabo de Hornos, XII Región. Pert N° 210123003"</t>
+          <t>"Ampliación de Biomasa, Centro de Engorda de Salmónidos, Paso Picton Isla Navarino. Comuna de Cabo de Hornos, XII Región. Pert N° 210123004"</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7053846&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7053835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CENTRO SECTOR AL OESTE DE ISLOTE PETIT, COMUNA DE NAVARINO, XIIª REGIÓN Nº PERT:207123076</t>
+          <t>"Ampliación de Biomasa, Centro de Engorda de Salmónidos, Paso Picton Isla Navarino. Comuna de Cabo de Hornos, XII Región. Pert N° 210123003"</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Pesquera Cabo Pilar S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1000</v>
+        <v>2600</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>06/07/2012</t>
+          <t>23/07/2012</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7089755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7053846&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CENTRO SECTOR FRENTE A ISLOTE PETIT, COMUNA DE NAVARINO, XIIª REGION, Nº PERT: 207123075</t>
+          <t>CENTRO SECTOR AL OESTE DE ISLOTE PETIT, COMUNA DE NAVARINO, XIIª REGIÓN Nº PERT:207123076</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7089780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7089755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmónidos, Canal Cockburn, Sector Norte Isla Joaquín, XII° Región, Solicitud N° 207123071</t>
+          <t>CENTRO SECTOR FRENTE A ISLOTE PETIT, COMUNA DE NAVARINO, XIIª REGION, Nº PERT: 207123075</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1163,7 +1163,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7093305&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7089780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonideos, Canal Cockburn, Sector Sur de Isla King, XII° Región, Solicitud N° 207123055</t>
+          <t>Centro de Cultivo de Salmónidos, Canal Cockburn, Sector Norte Isla Joaquín, XII° Región, Solicitud N° 207123071</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7093413&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7093305&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 22, SENO BRUJO, PTO. ALEGRÍA, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123023</t>
+          <t>Centro de Cultivo de Salmonideos, Canal Cockburn, Sector Sur de Isla King, XII° Región, Solicitud N° 207123055</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>04/07/2012</t>
+          <t>06/07/2012</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7079081&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7093413&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 38, SENO BLUFF, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123039</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 22, SENO BRUJO, PTO. ALEGRÍA, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123023</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7080034&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7079081&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 42, ISLA AMAYA, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123043</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 38, SENO BLUFF, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123039</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7080230&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7080034&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 44, PTA KING, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123045</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 42, ISLA AMAYA, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123043</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7081076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7080230&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 12, SENO CHASCO, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123013</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 44, PTA KING, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123045</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>11/11/2011</t>
+          <t>04/07/2012</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6094490&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7081076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 15, SENO CHASCO. Nº PERT: 207123016</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 25, SENO BRUJO.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6097695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6212345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 25, SENO BRUJO.</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 12, SENO CHASCO, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123013</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6212345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6094490&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 18, SENO BRUJO, CABO DE HORNOS.</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 15, SENO CHASCO. Nº PERT: 207123016</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>10/11/2011</t>
+          <t>11/11/2011</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6233092&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6097695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 4, PENÍNSULA BRECKNOCK. Nº PERT: 207123005</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 16, PENINSULA BRECKNOCK, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123017</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089506&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6099113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 16, PENINSULA BRECKNOCK, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123017</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 8, PENÍNSULA BRECKNOCK.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6099113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6211846&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 8, PENÍNSULA BRECKNOCK.</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 18, SENO BRUJO, CABO DE HORNOS.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6211846&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6233092&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE ENGORDA DE SALMONIDEOS, CANAL BEAGLE AL SUR DE ISLA DELIA, COMUNA DE CABO DE HORNOS, XII REGIÓN. Solicitud N° 210123001</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 4, PENÍNSULA BRECKNOCK. Nº PERT: 207123005</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Pesquera Cabo Pilar S.A.</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>26/07/2011</t>
+          <t>10/11/2011</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5849829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089506&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico Centro de Engorda de Salmonideos, Paso Picton, Isla Navarino, Comuna de Cabo de Hornos, XII Región, Solicitud 210123002</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE ENGORDA DE SALMONIDEOS, CANAL BEAGLE AL SUR DE ISLA DELIA, COMUNA DE CABO DE HORNOS, XII REGIÓN. Solicitud N° 210123001</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5852341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5849829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico Centro de Engorda de Salmonideos, Paso Picton Isla Navarino, Comuna de Cabo de Hornos, XII Región. Solicitud Número 210123003</t>
+          <t>Modificación de Proyecto Técnico Centro de Engorda de Salmonideos, Paso Picton, Isla Navarino, Comuna de Cabo de Hornos, XII Región, Solicitud 210123002</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5852631&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5852341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico Centro de Engorda de Salmonideos, Paso Picton Isla Navarino, Comuna de Cabo de Hornos, XII Región. Solicitud Número 210123004</t>
+          <t>Modificación de Proyecto Técnico Centro de Engorda de Salmonideos, Paso Picton Isla Navarino, Comuna de Cabo de Hornos, XII Región. Solicitud Número 210123003</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5852946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5852631&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN, ISLA TIERRA DEL FUEGO, PENINSULA BRECKNOCK. Nº PERT: 207123004</t>
+          <t>Modificación de Proyecto Técnico Centro de Engorda de Salmonideos, Paso Picton Isla Navarino, Comuna de Cabo de Hornos, XII Región. Solicitud Número 210123004</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Pesquera Cabo Pilar S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>26/07/2011</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4636962&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5852946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN, SENO CHASCO. Nº PERT: 207123015.</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN, ISLA TIERRA DEL FUEGO, PENINSULA BRECKNOCK. Nº PERT: 207123004</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2079,17 +2079,17 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>04/06/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4636962&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN, SENO BRUJO. Nº PERT: 207123024.</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN, SENO CHASCO. Nº PERT: 207123015.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4613948&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4612754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN, SENO BRUJO. PUERTO ALEGRIA. Nº PERT: 207123023.</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN, SENO BRUJO. Nº PERT: 207123024.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2175,17 +2175,17 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>03/06/2010</t>
+          <t>04/06/2010</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4613762&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4613948&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN, SENO CHASCO. Nº PERT: 207123014.</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN, SENO BRUJO. PUERTO ALEGRIA. Nº PERT: 207123023.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2223,17 +2223,17 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>02/06/2010</t>
+          <t>03/06/2010</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4610713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4613762&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN-PENINSULA BRECKNOCK. Nº PERT: 207123004.</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN, SENO CHASCO. Nº PERT: 207123014.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2271,17 +2271,17 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>25/05/2010</t>
+          <t>02/06/2010</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4610713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>PLAN DE CIERRE Y OPERACIÓN TRANSITORIA DEL VERTEDERO PUERTO WILLIAMS (e-seia)</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN-PENINSULA BRECKNOCK. Nº PERT: 207123004.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Cabo de Hornos</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>17/08/2009</t>
+          <t>25/05/2010</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3973014&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2363,21 +2363,21 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>12/08/2009</t>
+          <t>17/08/2009</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3951064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3973014&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,10 +2392,14 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Proyecto Ecoturístico Puerto Isla Hornos</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr"/>
+          <t>PLAN DE CIERRE Y OPERACIÓN TRANSITORIA DEL VERTEDERO PUERTO WILLIAMS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D43" t="inlineStr">
         <is>
           <t>Duodécima</t>
@@ -2403,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Servicio Maritimo y Turistico Cabo de Hornos S.A</t>
+          <t>Ilustre Municipalidad de Cabo de Hornos</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3200</v>
+        <v>70</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>04/03/2009</t>
+          <t>12/08/2009</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3585827&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3951064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2436,14 +2440,10 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Instalación Sistema de Tratamiento de Aguas Servidas y Mejoramiento Sistema de Alcantarillado de Puerto Williams (e-seia)</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Proyecto Ecoturístico Puerto Isla Hornos</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
           <t>Duodécima</t>
@@ -2451,15 +2451,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Gobernación Provincial de Antártica Chilena</t>
+          <t>Servicio Maritimo y Turistico Cabo de Hornos S.A</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1040</v>
+        <v>3200</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>29/02/2008</t>
+          <t>04/03/2009</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2469,7 +2469,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2746017&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3585827&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2484,10 +2484,14 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Construcción Camino Estancia Vicuña Yendegaia</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
+          <t>Instalación Sistema de Tratamiento de Aguas Servidas y Mejoramiento Sistema de Alcantarillado de Puerto Williams (e-seia)</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr">
         <is>
           <t>Duodécima</t>
@@ -2495,15 +2499,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Gobernación Provincial de Antártica Chilena</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>20000</v>
+        <v>1040</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>20/11/2007</t>
+          <t>29/02/2008</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2513,7 +2517,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2517023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2746017&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2528,7 +2532,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Proyecto Turístico Puerto Cabo de Hornos</t>
+          <t>Construcción Camino Estancia Vicuña Yendegaia</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2539,25 +2543,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Servicio Maritimo y Turistico Cabo de Hornos S.A</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>3200</v>
+        <v>20000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>30/10/2007</t>
+          <t>20/11/2007</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2503031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2517023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2572,14 +2576,10 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Proyecto Hotel, Spa y Marina Onashaga (e-seia)</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Proyecto Turístico Puerto Cabo de Hornos</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
           <t>Duodécima</t>
@@ -2587,15 +2587,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ESEMAR S.A.</t>
+          <t>Servicio Maritimo y Turistico Cabo de Hornos S.A</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>5800</v>
+        <v>3200</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>25/09/2007</t>
+          <t>30/10/2007</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2605,7 +2605,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2391647&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2503031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2620,7 +2620,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Hotel, Spa y Marina Onashaga (e-seia)</t>
+          <t>Proyecto Hotel, Spa y Marina Onashaga (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2639,21 +2639,21 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>5793</v>
+        <v>5800</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>01/08/2007</t>
+          <t>25/09/2007</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2391647&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2668,7 +2668,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Hotel, Spa y Marina Onashaga (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2678,20 +2678,20 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>ESEMAR S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>300</v>
+        <v>5793</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>01/08/2007</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2701,7 +2701,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2274954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE MAGALLANES Y LA ANTÁRTICA CHILENA (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2726,30 +2726,30 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>25/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2214933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2764,7 +2764,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>MODIFICACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE MAGALLANES Y LA ANTÁRTICA CHILENA (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2774,30 +2774,30 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>25/06/2007</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2214933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2835,17 +2835,17 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2860,7 +2860,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>SISTEMA ALTERNATIVO DE MANEJO DE EFLUENTES MEDIANTE EMISARIO SUBMARINO Manejo de Efluentes mediante Emisario Submarino (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2870,30 +2870,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Productos Marinos Puerto Williams Limitada</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>08/11/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2908,7 +2908,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Recuperación Instalaciones Alcamar Isla Hornos (e-seia)</t>
+          <t>SISTEMA ALTERNATIVO DE MANEJO DE EFLUENTES MEDIANTE EMISARIO SUBMARINO Manejo de Efluentes mediante Emisario Submarino (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2923,15 +2923,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Depto. de Obras y Construcciones de la III Zona Naval</t>
+          <t>Productos Marinos Puerto Williams Limitada</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>21/09/2006</t>
+          <t>08/11/2006</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1702161&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2956,7 +2956,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO Y DESCARGA DE EFLUENTES MEDIANTE EMISARIO SUBMARINO (e-seia)</t>
+          <t>Recuperación Instalaciones Alcamar Isla Hornos (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2971,15 +2971,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Compañía de Comercio y Desarrollo Pesquero Magallanes Limitada - CIDEPES LTDA</t>
+          <t>Depto. de Obras y Construcciones de la III Zona Naval</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>08/09/2006</t>
+          <t>21/09/2006</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -2989,7 +2989,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1669184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1702161&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3004,7 +3004,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>SISTEMA ALTERNATIVO DE MANEJO DE EFLUENTES MEDIANTE EMISARIO SUBMARINO (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO Y DESCARGA DE EFLUENTES MEDIANTE EMISARIO SUBMARINO (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3019,25 +3019,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Productos Marinos Puerto Williams Limitada</t>
+          <t>Compañía de Comercio y Desarrollo Pesquero Magallanes Limitada - CIDEPES LTDA</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>09/03/2006</t>
+          <t>08/09/2006</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1329173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1669184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3052,7 +3052,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>SISTEMA DE MANEJO DE EFLUENTES CON EMISARIO SUBMARINO (e-seia)</t>
+          <t>SISTEMA ALTERNATIVO DE MANEJO DE EFLUENTES MEDIANTE EMISARIO SUBMARINO (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3067,25 +3067,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Construcciones y Carpintería Naval CONCAR S.A.</t>
+          <t>Productos Marinos Puerto Williams Limitada</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>17/02/2006</t>
+          <t>09/03/2006</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1282357&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1329173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3100,7 +3100,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Recuperación Instalaciones Alcamar Isla Hornos (e-seia)</t>
+          <t>SISTEMA DE MANEJO DE EFLUENTES CON EMISARIO SUBMARINO (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3115,25 +3115,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Servicio de Obras y Construcciones de la Armada</t>
+          <t>Construcciones y Carpintería Naval CONCAR S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>14/12/2005</t>
+          <t>17/02/2006</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1166607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1282357&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3148,12 +3148,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Centro de Manejo de Residuos Sólidos Cabo de Hornos</t>
+          <t>Recuperación Instalaciones Alcamar Isla Hornos (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3163,25 +3163,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Cabo de Hornos</t>
+          <t>Servicio de Obras y Construcciones de la Armada</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>16/05/2005</t>
+          <t>14/12/2005</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=862411&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1166607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3196,12 +3196,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Cabo de Hornos - Sector Isla Navarino (e-seia)</t>
+          <t>Centro de Manejo de Residuos Sólidos Cabo de Hornos</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3215,11 +3215,11 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>18/11/2004</t>
+          <t>16/05/2005</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3229,7 +3229,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=514608&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=862411&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3244,7 +3244,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Recursos Hidrobiológicos en Buque Factoría Cabo de Hornos (e-seia)</t>
+          <t>Modificación Plan Regulador Comunal de Cabo de Hornos - Sector Isla Navarino (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3254,20 +3254,20 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Ilustre Municipalidad de Cabo de Hornos</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>18500</v>
+        <v>0</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>02/06/2004</t>
+          <t>18/11/2004</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3277,7 +3277,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=362582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=514608&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3292,7 +3292,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Cabo de Hornos (e-seia)</t>
+          <t>Planta Procesadora de Recursos Hidrobiológicos en Buque Factoría Cabo de Hornos (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3302,20 +3302,20 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Cabo de Hornos</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>18500</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>07/01/2004</t>
+          <t>02/06/2004</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3325,7 +3325,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=243367&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=362582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Región de Magallanes y Antártica Chilena (e-seia)</t>
+          <t>Modificación Plan Regulador Comunal de Cabo de Hornos (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3355,7 +3355,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial XIIª Región - Ministerio de Vivienda y Urbanismo</t>
+          <t>Ilustre Municipalidad de Cabo de Hornos</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -3363,7 +3363,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>20/08/2003</t>
+          <t>07/01/2004</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3373,7 +3373,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131263&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=243367&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3388,7 +3388,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Bahía Virginia (201123003) Canal Beagle</t>
+          <t>Plan Regional de Desarrollo Urbano Región de Magallanes y Antártica Chilena (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3403,25 +3403,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Construcciones y Carpintería Naval CONCAR S.A.</t>
+          <t>Secretaría Regional Ministerial XIIª Región - Ministerio de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>20/12/2002</t>
+          <t>20/08/2003</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6112&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131263&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3436,7 +3436,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Islotes Eclaireurs (201123004) Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Punta Norte (201123012) Paso Picton Canal Beagle</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3451,7 +3451,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Construcciones y Carpintería Naval CONCAR S.A.</t>
+          <t>Pesquera Cabo Pilar S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -3464,12 +3464,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6114&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3484,7 +3484,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Punta Norte (201123012) Paso Picton Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Isla Delia (201123007) Canal Beagle</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3517,7 +3517,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6114&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3532,7 +3532,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Isla Delia (201123007) Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Islote Solitario (201123010) Paso Picton Canal Beagle</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3565,7 +3565,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3580,7 +3580,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Islote Solitario (201123010) Paso Picton Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Área Puerto Toro Paso Picton - Canal Beagle (201123011)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3613,7 +3613,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3628,7 +3628,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Isla Martínez (201123001) Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Bahía Virginia (201123003) Canal Beagle</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3661,7 +3661,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6112&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3676,7 +3676,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Punta Burshem (201123002) Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Islotes Eclaireurs (201123004) Canal Beagle</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3709,7 +3709,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6118&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3724,7 +3724,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Área Puerto Toro Paso Picton - Canal Beagle (201123011)</t>
+          <t>Centro de Engorda de Salmonídeos Sector Isla Martínez (201123001) Canal Beagle</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3739,7 +3739,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Pesquera Cabo Pilar S.A.</t>
+          <t>Construcciones y Carpintería Naval CONCAR S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -3752,12 +3752,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3772,7 +3772,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Islote Curioso (201123006) Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Punta Burshem (201123002) Canal Beagle</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3805,7 +3805,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6118&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3820,7 +3820,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Productos del Mar en Puerto Williams</t>
+          <t>Centro de Engorda de Salmonídeos Sector Islote Curioso (201123006) Canal Beagle</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3835,25 +3835,25 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Productos Marinos Puerto Williams Limitada</t>
+          <t>Construcciones y Carpintería Naval CONCAR S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>180</v>
+        <v>2300</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>28/10/2002</t>
+          <t>20/12/2002</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5959&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3868,7 +3868,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Senderos de Chile Cerro Bandera en la Isla de Navarino</t>
+          <t>Planta Procesadora de Productos del Mar en Puerto Williams</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3883,25 +3883,25 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Cabo de Hornos</t>
+          <t>Productos Marinos Puerto Williams Limitada</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>16/07/2002</t>
+          <t>28/10/2002</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5959&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3916,7 +3916,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Instalación del Servicio de Alcantarillado de Puerto Toro</t>
+          <t>Senderos de Chile Cerro Bandera en la Isla de Navarino</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3931,25 +3931,25 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Dirección de Obras Hidráulicas - XIIª Región</t>
+          <t>Ilustre Municipalidad de Cabo de Hornos</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>25/02/2002</t>
+          <t>16/07/2002</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5134&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3964,7 +3964,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Mejoramiento del Servicio de Agua Potable Rural de Puerto Toro</t>
+          <t>Instalación del Servicio de Alcantarillado de Puerto Toro</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3983,7 +3983,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>260</v>
+        <v>140</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5134&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4012,7 +4012,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos Sector Oeste Bahía Honda (200123001) Sector Sur Oeste Bahía Honda (200123002) Isla Navarino</t>
+          <t>Mejoramiento del Servicio de Agua Potable Rural de Puerto Toro</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4027,25 +4027,25 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>ChileCultivos S.A.</t>
+          <t>Dirección de Obras Hidráulicas - XIIª Región</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>7200</v>
+        <v>260</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>01/10/2001</t>
+          <t>25/02/2002</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4387&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4060,7 +4060,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos Sector Grupo Holger (99121133) Sector Weste Grupo Holger (99121132) Sector Isla Grupo Holger (200123003) Isla Navarino</t>
+          <t>Centro de Engorda Salmonídeos Sector Oeste Bahía Honda (200123001) Sector Sur Oeste Bahía Honda (200123002) Isla Navarino</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4088,12 +4088,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4388&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4387&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4108,7 +4108,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-S.Chasco(99121088-99121089-99121090-99121092-99121093-99121094-99121095-99121097-99121100)-S.Chasco-Pto. Consuelo(99121091)-P.Brecknock (99121098-99121101)-S.Chasco-P.Brecknock(99121102)Canal Cockburn I.T. del Fuego-Grupo D</t>
+          <t>Centro de Engorda Salmonídeos Sector Grupo Holger (99121133) Sector Weste Grupo Holger (99121132) Sector Isla Grupo Holger (200123003) Isla Navarino</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4123,25 +4123,25 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>ChileCultivos S.A.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1500</v>
+        <v>7200</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>28/09/2001</t>
+          <t>01/10/2001</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4380&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4388&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4156,7 +4156,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Seno Brujo (99121072- 99121078-99121079-99121081-99121080-99121083-99121084)-Península Rolando (99121073)-Canal Cockburn Isla Tierra del Fuego-Grupo E</t>
+          <t>Centro de Engorda Salmonídeos-S.Chasco(99121088-99121089-99121090-99121092-99121093-99121094-99121095-99121097-99121100)-S.Chasco-Pto. Consuelo(99121091)-P.Brecknock (99121098-99121101)-S.Chasco-P.Brecknock(99121102)Canal Cockburn I.T. del Fuego-Grupo D</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4189,7 +4189,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4381&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4204,7 +4204,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Seno Sargazos Norte (99121076)-Seno Sargazos Sur (99121077) Canal Cockburn-Isla Tierra del Fuego-Grupo F</t>
+          <t>Centro de Engorda Salmonídeos-Seno Brujo (99121072- 99121078-99121079-99121081-99121080-99121083-99121084)-Península Rolando (99121073)-Canal Cockburn Isla Tierra del Fuego-Grupo E</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4237,7 +4237,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4382&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4381&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4252,7 +4252,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Seno Bluff (99121105)-Seno Bluff (99121106)-Seno Bluff (99121107)-Seno Bluff (99121108)-Seno Bluff (99121111) Canal Cockburn-Isla Tierra del Fuego-Grupo G</t>
+          <t>Centro de Engorda Salmonídeos-Seno Sargazos Norte (99121076)-Seno Sargazos Sur (99121077) Canal Cockburn-Isla Tierra del Fuego-Grupo F</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4285,7 +4285,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4383&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4382&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4300,7 +4300,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmonídeos-Seno Chasco (99121087) Canal Cockburn-Isla Tierra del Fuego-Grupo H</t>
+          <t>Centro de Engorda Salmonídeos-Seno Bluff (99121105)-Seno Bluff (99121106)-Seno Bluff (99121107)-Seno Bluff (99121108)-Seno Bluff (99121111) Canal Cockburn-Isla Tierra del Fuego-Grupo G</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4333,7 +4333,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4384&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4383&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4348,7 +4348,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Centro de Apoyo Logístico Caleta Lewaia Canal Beagle</t>
+          <t>Centro de Engorda Salmonídeos-Seno Chasco (99121087) Canal Cockburn-Isla Tierra del Fuego-Grupo H</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4363,25 +4363,25 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Cristian Boré Pineda</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>170</v>
+        <v>1500</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>14/08/2001</t>
+          <t>28/09/2001</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4230&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4384&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4396,43 +4396,91 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
+          <t>Centro de Apoyo Logístico Caleta Lewaia Canal Beagle</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Duodécima</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Cristian Boré Pineda</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>170</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>14/08/2001</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Desistido</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4230&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Cabo de Hornos</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
           <t>Modificación Plan Regulador Comunal de Navarino</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Duodécima</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Duodécima</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
         <is>
           <t>Ilustre Municipalidad de Cabo de Hornos</t>
         </is>
       </c>
-      <c r="F85" t="n">
+      <c r="F86" t="n">
         <v>0</v>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>24/05/1999</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I85" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1961&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J85" t="inlineStr">
+      <c r="J86" t="inlineStr">
         <is>
           <t>Cabo de Hornos</t>
         </is>

--- a/data/Cabo de Hornos.xlsx
+++ b/data/Cabo de Hornos.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Cabo de Hornos.xlsx
+++ b/data/Cabo de Hornos.xlsx
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 25, SENO BRUJO.</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 12, SENO CHASCO, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123013</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6212345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6094490&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 12, SENO CHASCO, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123013</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 15, SENO CHASCO. Nº PERT: 207123016</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6094490&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6097695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 15, SENO CHASCO. Nº PERT: 207123016</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 25, SENO BRUJO.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6097695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6212345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 16, PENINSULA BRECKNOCK, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123017</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 18, SENO BRUJO, CABO DE HORNOS.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6099113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6233092&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 8, PENÍNSULA BRECKNOCK.</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 4, PENÍNSULA BRECKNOCK. Nº PERT: 207123005</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6211846&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089506&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PLAN DE CIERRE VERTEDERO PUERTO WILLIAMS</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 16, PENINSULA BRECKNOCK, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123017</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,11 +1735,11 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Cabo de Hornos</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>303</v>
+        <v>2600</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1748,12 +1748,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6177870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6099113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 18, SENO BRUJO, CABO DE HORNOS.</t>
+          <t>PLAN DE CIERRE VERTEDERO PUERTO WILLIAMS</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,11 +1783,11 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Ilustre Municipalidad de Cabo de Hornos</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2600</v>
+        <v>303</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1796,12 +1796,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6233092&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6177870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 4, PENÍNSULA BRECKNOCK. Nº PERT: 207123005</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 8, PENÍNSULA BRECKNOCK.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089506&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6211846&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -3436,7 +3436,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Punta Norte (201123012) Paso Picton Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Bahía Virginia (201123003) Canal Beagle</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3451,7 +3451,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Pesquera Cabo Pilar S.A.</t>
+          <t>Construcciones y Carpintería Naval CONCAR S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -3464,12 +3464,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6114&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6112&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3484,7 +3484,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Isla Delia (201123007) Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Islotes Eclaireurs (201123004) Canal Beagle</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3499,7 +3499,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Pesquera Cabo Pilar S.A.</t>
+          <t>Construcciones y Carpintería Naval CONCAR S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -3512,12 +3512,12 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3532,7 +3532,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Islote Solitario (201123010) Paso Picton Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Punta Norte (201123012) Paso Picton Canal Beagle</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3565,7 +3565,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6114&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3580,7 +3580,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Área Puerto Toro Paso Picton - Canal Beagle (201123011)</t>
+          <t>Centro de Engorda de Salmonídeos Sector Isla Delia (201123007) Canal Beagle</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3613,7 +3613,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3628,7 +3628,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Bahía Virginia (201123003) Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Islote Solitario (201123010) Paso Picton Canal Beagle</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3643,7 +3643,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Construcciones y Carpintería Naval CONCAR S.A.</t>
+          <t>Pesquera Cabo Pilar S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -3656,12 +3656,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6112&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3676,7 +3676,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Islotes Eclaireurs (201123004) Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Isla Martínez (201123001) Canal Beagle</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3709,7 +3709,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3724,7 +3724,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Isla Martínez (201123001) Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Punta Burshem (201123002) Canal Beagle</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3757,7 +3757,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6118&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3772,7 +3772,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Punta Burshem (201123002) Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Área Puerto Toro Paso Picton - Canal Beagle (201123011)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3787,7 +3787,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Construcciones y Carpintería Naval CONCAR S.A.</t>
+          <t>Pesquera Cabo Pilar S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -3800,12 +3800,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6118&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">

--- a/data/Cabo de Hornos.xlsx
+++ b/data/Cabo de Hornos.xlsx
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 12, SENO CHASCO, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123013</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 25, SENO BRUJO.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6094490&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6212345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 15, SENO CHASCO. Nº PERT: 207123016</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 12, SENO CHASCO, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123013</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6097695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6094490&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 25, SENO BRUJO.</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 15, SENO CHASCO. Nº PERT: 207123016</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6212345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6097695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 18, SENO BRUJO, CABO DE HORNOS.</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 16, PENINSULA BRECKNOCK, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123017</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6233092&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6099113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 4, PENÍNSULA BRECKNOCK. Nº PERT: 207123005</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 8, PENÍNSULA BRECKNOCK.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089506&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6211846&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 16, PENINSULA BRECKNOCK, COMUNA DE CABO DE HORNOS, XIIª REGIÓN. Nº PERT: 207123017</t>
+          <t>PLAN DE CIERRE VERTEDERO PUERTO WILLIAMS</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,11 +1735,11 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Ilustre Municipalidad de Cabo de Hornos</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2600</v>
+        <v>303</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1748,12 +1748,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6099113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6177870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>PLAN DE CIERRE VERTEDERO PUERTO WILLIAMS</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 18, SENO BRUJO, CABO DE HORNOS.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,11 +1783,11 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Cabo de Hornos</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>303</v>
+        <v>2600</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1796,12 +1796,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6177870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6233092&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO CANAL COCKBURN 8, PENÍNSULA BRECKNOCK.</t>
+          <t>CENTRO DE CULTIVO CANAL COCKBURN 4, PENÍNSULA BRECKNOCK. Nº PERT: 207123005</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6211846&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089506&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -3436,7 +3436,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Bahía Virginia (201123003) Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Punta Norte (201123012) Paso Picton Canal Beagle</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3451,7 +3451,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Construcciones y Carpintería Naval CONCAR S.A.</t>
+          <t>Pesquera Cabo Pilar S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -3464,12 +3464,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6112&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6114&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3484,7 +3484,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Islotes Eclaireurs (201123004) Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Isla Delia (201123007) Canal Beagle</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3499,7 +3499,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Construcciones y Carpintería Naval CONCAR S.A.</t>
+          <t>Pesquera Cabo Pilar S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -3512,12 +3512,12 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3532,7 +3532,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Punta Norte (201123012) Paso Picton Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Islote Solitario (201123010) Paso Picton Canal Beagle</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3565,7 +3565,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6114&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3580,7 +3580,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Isla Delia (201123007) Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Área Puerto Toro Paso Picton - Canal Beagle (201123011)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3613,7 +3613,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3628,7 +3628,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Islote Solitario (201123010) Paso Picton Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Bahía Virginia (201123003) Canal Beagle</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3643,7 +3643,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Pesquera Cabo Pilar S.A.</t>
+          <t>Construcciones y Carpintería Naval CONCAR S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -3656,12 +3656,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6112&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3676,7 +3676,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Isla Martínez (201123001) Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Islotes Eclaireurs (201123004) Canal Beagle</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3709,7 +3709,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3724,7 +3724,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Sector Punta Burshem (201123002) Canal Beagle</t>
+          <t>Centro de Engorda de Salmonídeos Sector Isla Martínez (201123001) Canal Beagle</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3757,7 +3757,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6118&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3772,7 +3772,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Área Puerto Toro Paso Picton - Canal Beagle (201123011)</t>
+          <t>Centro de Engorda de Salmonídeos Sector Punta Burshem (201123002) Canal Beagle</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3787,7 +3787,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Pesquera Cabo Pilar S.A.</t>
+          <t>Construcciones y Carpintería Naval CONCAR S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -3800,12 +3800,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6118&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
